--- a/election_votar_data/LOHAGARA/ADHUNAGAR/152550/152550_com_1007_male_without_photo_59_2025-11-24.pdf.xlsx
+++ b/election_votar_data/LOHAGARA/ADHUNAGAR/152550/152550_com_1007_male_without_photo_59_2025-11-24.pdf.xlsx
@@ -15140,7 +15140,7 @@
       </c>
       <c r="F350" s="3" t="inlineStr">
         <is>
-          <t>ক্ষেত্র</t>
+          <t>ক্ষেত্র জন্ম তারিখ: ০৮/০৫/১৯৭১</t>
         </is>
       </c>
       <c r="G350" s="3" t="inlineStr">
@@ -35468,7 +35468,7 @@
       </c>
       <c r="F834" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১০/০৭/১৯৯৮</t>
         </is>
       </c>
       <c r="G834" s="3" t="inlineStr">
